--- a/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/d91d4c11-d5ab-49d6-80ca-d61fd850bb18/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -273,7 +273,7 @@
     <t>Net impact due to tax treatment of finance leases and other net temporary Effect of lower tax rate in New Zealand</t>
   </si>
   <si>
-    <t>Total or tax income Total loss of the in expense consolidated statement profit and other comprehensive income</t>
+    <t>Net impact due to tax treatment of finance leases and other net temporary or tax income Total loss of the in expense consolidated statement profit and other comprehensive income</t>
   </si>
   <si>
     <t>5</t>
